--- a/docs/uploads/datos.xlsx
+++ b/docs/uploads/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda Quelex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda Quelex\Desktop\REGRESION _LINEAL_modificado\tu_proyecto\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB6A364-DF71-41BA-B644-80F419A116E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3780F88-6725-49C2-8E21-5C4976944C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7CBC843D-B0BC-418D-81A7-0E4F8552A299}"/>
   </bookViews>
@@ -25,93 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t>nombre del estudio</t>
-  </si>
-  <si>
-    <t>cantidad mensual</t>
-  </si>
-  <si>
-    <t>mes</t>
-  </si>
-  <si>
-    <t>año</t>
-  </si>
-  <si>
-    <t>Estudio 1</t>
-  </si>
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Estudio 2</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayo </t>
-  </si>
-  <si>
-    <t>Estudio 3</t>
-  </si>
-  <si>
-    <t>Estudio 4</t>
-  </si>
-  <si>
-    <t>Estudio 5</t>
-  </si>
-  <si>
-    <t>Estudio 6</t>
-  </si>
-  <si>
-    <t>Estudio 7</t>
-  </si>
-  <si>
-    <t>Estudio 8</t>
-  </si>
-  <si>
-    <t>Estudio 9</t>
-  </si>
-  <si>
-    <t>Estudio 10</t>
-  </si>
-  <si>
-    <t>Estudio 11</t>
-  </si>
-  <si>
-    <t>Estudio 12</t>
-  </si>
-  <si>
-    <t>Estudio 13</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio </t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+  <si>
+    <t>ECOCARDIOGRAFIA; DOPPLER COLOR; Transtorácico</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL ESTUDIO</t>
+  </si>
+  <si>
+    <t>CANTIDAD ANUAL</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>UNIDAD MÉDICA</t>
+  </si>
+  <si>
+    <t>ZONA 9</t>
+  </si>
+  <si>
+    <t>No. REGISTRO</t>
   </si>
 </sst>
 </file>
@@ -153,9 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,212 +403,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9AF8B9-E937-44F5-B842-FC8564C26ABA}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="E3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>289</v>
+      </c>
+      <c r="E5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>821</v>
+      </c>
+      <c r="E6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>304</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1151</v>
+      </c>
+      <c r="E8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>847</v>
+      </c>
+      <c r="E9">
         <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>150</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>180</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2023</v>
       </c>
     </row>
   </sheetData>
